--- a/GMD Locomotives.xlsx
+++ b/GMD Locomotives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds57534\Documents\GitHub\Web-Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A601A9-5FAD-488B-AC9E-EF1AABB5B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC020FD9-E1AC-4A82-9154-FD28E4609BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4150982E-9AB4-4D52-8284-4B29E474F76E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>SW8</t>
   </si>
@@ -339,67 +339,64 @@
     <t>Power Output</t>
   </si>
   <si>
-    <t>800 hp</t>
-  </si>
-  <si>
-    <t>1,200 hp</t>
-  </si>
-  <si>
-    <t>900 hp</t>
-  </si>
-  <si>
-    <t>600 hp</t>
-  </si>
-  <si>
-    <t>275 hp</t>
-  </si>
-  <si>
-    <t>1,500 hp</t>
-  </si>
-  <si>
-    <t>1,750 hp</t>
-  </si>
-  <si>
-    <t>2,250 hp</t>
-  </si>
-  <si>
-    <t>2,500 hp</t>
-  </si>
-  <si>
-    <t>2,000 hp</t>
-  </si>
-  <si>
-    <t>3,000 hp</t>
-  </si>
-  <si>
-    <t>3,200 hp</t>
-  </si>
-  <si>
-    <t>3,500 hp</t>
-  </si>
-  <si>
-    <t>3,800 hp</t>
-  </si>
-  <si>
-    <t>875 hp</t>
-  </si>
-  <si>
-    <t>1,310 hp</t>
-  </si>
-  <si>
-    <t>1,425 hp</t>
-  </si>
-  <si>
-    <t>1,100 hp</t>
-  </si>
-  <si>
-    <t>1,650 hp</t>
-  </si>
-  <si>
-    <t>6,000 hp</t>
-  </si>
-  <si>
-    <t>3,000 hp</t>
+    <t>800 </t>
+  </si>
+  <si>
+    <t>900 </t>
+  </si>
+  <si>
+    <t>600 </t>
+  </si>
+  <si>
+    <t>275 </t>
+  </si>
+  <si>
+    <t>875 </t>
+  </si>
+  <si>
+    <t>1500 </t>
+  </si>
+  <si>
+    <t>1200 </t>
+  </si>
+  <si>
+    <t>1750 </t>
+  </si>
+  <si>
+    <t>2250 </t>
+  </si>
+  <si>
+    <t>2500 </t>
+  </si>
+  <si>
+    <t>2000 </t>
+  </si>
+  <si>
+    <t>3000 </t>
+  </si>
+  <si>
+    <t>3200 </t>
+  </si>
+  <si>
+    <t>3500 </t>
+  </si>
+  <si>
+    <t>3800 </t>
+  </si>
+  <si>
+    <t>1310 </t>
+  </si>
+  <si>
+    <t>1425 </t>
+  </si>
+  <si>
+    <t>1100 </t>
+  </si>
+  <si>
+    <t>1650 </t>
+  </si>
+  <si>
+    <t>6000 </t>
   </si>
 </sst>
 </file>
@@ -437,7 +434,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +752,13 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -770,7 +770,7 @@
       <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
       <c r="C2">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -798,8 +798,8 @@
       <c r="C3">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>102</v>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,8 +812,8 @@
       <c r="C4">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>103</v>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,8 +826,8 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>102</v>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,8 +840,8 @@
       <c r="C6">
         <v>264</v>
       </c>
-      <c r="D6" t="s">
-        <v>102</v>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,8 +854,8 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>104</v>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,8 +868,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>105</v>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
       <c r="C10">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="C11">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C12">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -938,8 +938,8 @@
       <c r="C13">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>107</v>
+      <c r="D13" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,8 +952,8 @@
       <c r="C14">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>107</v>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
       <c r="C15">
         <v>112</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -980,8 +980,8 @@
       <c r="C16">
         <v>646</v>
       </c>
-      <c r="D16" t="s">
-        <v>107</v>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1022,8 +1022,8 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>102</v>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,8 +1036,8 @@
       <c r="C20">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>102</v>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,8 +1050,8 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>108</v>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,8 +1064,8 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>109</v>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,8 +1078,8 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>110</v>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,8 +1092,8 @@
       <c r="C24">
         <v>204</v>
       </c>
-      <c r="D24" t="s">
-        <v>110</v>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,8 +1106,8 @@
       <c r="C25">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
-        <v>110</v>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,8 +1120,8 @@
       <c r="C26">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>111</v>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,8 +1134,8 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>111</v>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,8 +1148,8 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
-        <v>111</v>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,8 +1162,8 @@
       <c r="C29">
         <v>268</v>
       </c>
-      <c r="D29" t="s">
-        <v>111</v>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,8 +1176,8 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>111</v>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,8 +1190,8 @@
       <c r="C31">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>112</v>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,8 +1204,8 @@
       <c r="C32">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>111</v>
+      <c r="D32" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,8 +1218,8 @@
       <c r="C33">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>102</v>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,8 +1232,8 @@
       <c r="C34">
         <v>38</v>
       </c>
-      <c r="D34" t="s">
-        <v>102</v>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,8 +1246,8 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>110</v>
+      <c r="D35" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,8 +1260,8 @@
       <c r="C36">
         <v>340</v>
       </c>
-      <c r="D36" t="s">
-        <v>111</v>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,8 +1274,8 @@
       <c r="C37">
         <v>619</v>
       </c>
-      <c r="D37" t="s">
-        <v>111</v>
+      <c r="D37" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,8 +1288,8 @@
       <c r="C38">
         <v>123</v>
       </c>
-      <c r="D38" t="s">
-        <v>111</v>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,8 +1302,8 @@
       <c r="C39">
         <v>25</v>
       </c>
-      <c r="D39" t="s">
-        <v>111</v>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,8 +1316,8 @@
       <c r="C40">
         <v>60</v>
       </c>
-      <c r="D40" t="s">
-        <v>113</v>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,8 +1330,8 @@
       <c r="C41">
         <v>64</v>
       </c>
-      <c r="D41" t="s">
-        <v>114</v>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,8 +1344,8 @@
       <c r="C42">
         <v>23</v>
       </c>
-      <c r="D42" t="s">
-        <v>115</v>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,8 +1358,8 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>115</v>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
       <c r="C46">
         <v>676</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C47">
         <v>292</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       <c r="C54">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1516,8 +1516,8 @@
       <c r="C56">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>102</v>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
       <c r="C57">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1577,8 +1577,8 @@
       <c r="C61">
         <v>659</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>121</v>
+      <c r="D61" s="1">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
